--- a/data/processed/test/tasks.xlsx
+++ b/data/processed/test/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hack\HSE AI Assistant hack\pocket-tutor-py\data\processed\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E2174-F7B0-4689-9642-81BE63370E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89779481-4528-4D09-8BFD-5F32E38D89F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -78,26 +78,6 @@
 Определите, в каких поселках студии не занимались дизайном интерьера введенного помещения  и напечатайте уникальные названия поселков через прямой слэш ("/"). Названия поселков должны идти в алфавитном порядке.</t>
   </si>
   <si>
-    <t>studios = {
-    'Rutemple Studio': {'Сканди-парк': ['мастер-спальня', 'столовая', 'гостинная', 'прихожая'], 
-                        'Британика': ['прихожая', 'санузел', 'столовая', 'гостинная']},
-    'VDT': {'Гринфилд': ['гостинная', 'гардеробная', 'кабинет', 'столовая'], 
-            'Британика': ["прихожая", 'гостинная', 'столовая'], 
-            'Театральный квартал': ["прихожая", "гостевой санузел", 'столовая', 'гостинная']},
-    'Greenvillage': {'Британика': ["столовая", "гостинная"], 
-                     'Риверсайд': ["гостинная", "столовая", "санузел"]},
-    'T+T architects': {'Гринфилд': ["гостинная", "прихожая", "столовая", 'кабинет'], 
-                       'Монтевиль':["гостинная", 'столовая']}
-}
-room = input()
-residences = []
-for key, value in studios.items():
-    for k, v in value.items():
-        if room not in v:
-            residences.append(k)
-print(*sorted(set(residences)), sep='/')</t>
-  </si>
-  <si>
     <t>Реализуйте программу, которая напечатает стоимость и срок реализации проекта: 
 В переменную duration считывается срок реализации проекта в неделях(целое число). Этот код уже написан.
 В переменную money считывается стоимость реализации проекта в тысячах (целое число). Этот код уже написан.
@@ -164,26 +144,6 @@
 В переменную room считывается название помещения (строка). Этот код уже написан.
 Определите, в каких поселках студии занимались дизайном интерьера введенного помещения  и напечатайте названия поселков через прямой слэш ("/"). Названия поселков должны идти в обратном алфавитном порядке.
 Если ни в одном поселке не было дизайна указанного помещения, то программа ничего не печатает.</t>
-  </si>
-  <si>
-    <t>studios = {
-    'Rutemple Studio': {'Сканди-парк': ['мастер-спальня', 'столовая', 'гостинная', 'прихожая'], 
-                        'Британика': ['прихожая', 'санузел', 'столовая', 'гостинная']},
-    'VDT': {'Гринфилд': ['гостинная', 'гардеробная', 'кабинет', 'столовая'], 
-            'Британика': ["прихожая", 'гостинная', 'столовая'], 
-            'Театральный квартал': ["прихожая", "гостевой санузел", 'столовая', 'гостинная']},
-    'Greenvillage': {'Британика': ["столовая", "гостинная"], 
-                     'Риверсайд': ["гостинная", "столовая", "санузел"]},
-    'T+T architects': {'Гринфилд': ["гостинная", "прихожая", "столовая", 'кабинет'], 
-                       'Монтевиль':["гостинная", 'столовая']}
-}
-room = input()
-residences = []
-for key, value in studios.items():
-    for k, v in value.items():
-        if room  in v:
-            residences.append(k)
-print(*sorted(residences, reverse = True), sep='/')</t>
   </si>
   <si>
     <t>Ксения анализирует реализованные дизайн-проекты, которые собраны в файле формата csv. Напишите программу, которая выводит все строки, соответствующие реализованным за определенный срок проектам, стоимость которых была не более 250 тыс. руб..
@@ -372,21 +332,6 @@
 Если таких дизайнеров нет, должен печататься пустой список.</t>
   </si>
   <si>
-    <t>design = {
-    'Екатерина Васильева': ['Baskerville Old Face', 'Lucida Bright', 'Monotype Corsiva', 'Courier New'],
-    'Анастасия Соколова': ['Old English Text MT', 'Zapf Dingbats', 'Brush Script Std'],
-    'Ольга Кузнецова': ['Lucida Sans Unicode', 'Tahoma', 'Courier New', 'Palatino Linotype'],
-    'Дмитрий Михайлов': ['Arial Black', 'Garamond', 'Lucida Console', 'Courier New', 'Tahoma'],
-    'Мария Петрова': ['Arial', 'Calibri', 'Monotype Corsiva']
-}
-font = input()
-used = []
-for k,v in design.items():
-    if font in v:
-        used.append(k)
-print(used)</t>
-  </si>
-  <si>
     <t>Напишите функцию, определяющую агентства с допустимым количеством положительных отзывов.
 Определите функцию best_agencies, которая принимает на вход две строки:
 в первой строке через запятую и пробел перечислены названия агентств;
@@ -467,79 +412,10 @@
 Проверьте, что количество ключей словаря совпадает со значением первой переменной-счетчика, и если да, то пусть функция вернет логическую константу True; иначе пусть функция вернет значение второй-переменной счетчика (сумма чистой прибыли).</t>
   </si>
   <si>
-    <t>allowed_colors = set(input().split(', '))
-favorite_colors = set(input().split(', '))
-used_colors = set(input().split(', '))</t>
-  </si>
-  <si>
-    <t>studios = {
-    'Rutemple Studio': {'Сканди-парк': ['мастер-спальня', 'столовая', 'гостинная', 'прихожая'], 
-                        'Британика': ['прихожая', 'санузел', 'столовая', 'гостинная']},
-    'VDT': {'Гринфилд': ['гостинная', 'гардеробная', 'кабинет', 'столовая'], 
-            'Британика': ["прихожая", 'гостинная', 'столовая'], 
-            'Театральный квартал': ["прихожая", "гостевой санузел", 'столовая', 'гостинная']},
-    'Greenvillage': {'Британика': ["столовая", "гостинная"], 
-                     'Риверсайд': ["гостинная", "столовая", "санузел"]},
-    'T+T architects': {'Гринфилд': ["гостинная", "прихожая", "столовая", 'кабинет'], 
-                       'Монтевиль':["гостинная", 'столовая']}
-}
-room = input()</t>
-  </si>
-  <si>
-    <t>duration  = int(input())
-money = int(input())</t>
-  </si>
-  <si>
-    <t>logo_project = ['#a7a8f0', '#a7f0ca', '#b3b4e4', '#e4b3cd', '#e4e3b3', '#c0ced7']
-cite_project = ['#e4e3b3', '#a7a8f0', '#ccb1e6', '#b4f99e', '#f9b59e', '#c0ced7']
-color = input()</t>
-  </si>
-  <si>
-    <t>logo = input()</t>
-  </si>
-  <si>
-    <t>allowed_colors = set(input().split(', '))
-favorite_colors = set(input().split(', '))
-used_colors = set(input().split(', '))
-print(*sorted(used_colors &amp; favorite_colors - allowed_colors, reverse = False), sep = '; ', end = '!')</t>
-  </si>
-  <si>
-    <t>studios = {
-    'Rutemple Studio': {'Сканди-парк': ['мастер-спальня', 'столовая', 'гостинная', 'прихожая'], 
-                        'Британика': ['прихожая', 'санузел', 'столовая', 'гостинная']},
-    'VDT': {'Гринфилд': ['гостинная', 'гардеробная', 'кабинет', 'столовая'], 
-            'Британика': ["прихожая", 'гостинная', 'столовая'], 
-            'Театральный квартал': ["прихожая", "гостевой санузел", 'столовая', 'гостинная']},
-    'Greenvillage': {'Британика': ["столовая", "гостинная"], 
-                     'Риверсайд': ["гостинная", "столовая", "санузел"]},
-    'T+T architects': {'Гринфилд': ["гостинная", "прихожая", "столовая", 'кабинет'], 
-                       'Монтевиль':["гостинная", 'столовая']}
-}
-room = input()</t>
-  </si>
-  <si>
     <t>add csv</t>
   </si>
   <si>
     <t>print (work(slov))</t>
-  </si>
-  <si>
-    <t>ton = input()</t>
-  </si>
-  <si>
-    <t>language = input()
-second_language = input()
-yes = 'Сможем перевести'
-no = 'Не сможем перевести'</t>
-  </si>
-  <si>
-    <t>time = input()</t>
-  </si>
-  <si>
-    <t>order = input()
-time = int(input())
-work = 'Берем заказ в работу'
-reject = 'Отказываем заказчику'</t>
   </si>
   <si>
     <t>design = {
@@ -560,9 +436,6 @@
     <t>print(success(data))</t>
   </si>
   <si>
-    <t>data = eval(input())</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -572,32 +445,71 @@
     <t>add</t>
   </si>
   <si>
-    <t>names, count = eval(input())
-def best_agencies(names, count):
+    <t>discount, money = map(float, input().split(';'))
+money = int(money)
+#ваш код ниже
+print(f'Реализация проекта будет стоить {money} тыс. руб. без скидки. Со скидкой стоимость составит {money- (money * discount)} тыс. руб.')</t>
+  </si>
+  <si>
+    <t>import os.path as osp
+cd = osp.dirname(__file__)
+slov = eval(open(osp.join(cd, 'input.txt'), encoding='utf-8').read())</t>
+  </si>
+  <si>
+    <t>room = input()
+residences = []
+for key, value in studios.items():
+    for k, v in value.items():
+        if room not in v:
+            residences.append(k)
+print(*sorted(set(residences)), sep='/')</t>
+  </si>
+  <si>
+    <t>room = input()
+residences = []
+for key, value in studios.items():
+    for k, v in value.items():
+        if room  in v:
+            residences.append(k)
+print(*sorted(residences, reverse = True), sep='/')</t>
+  </si>
+  <si>
+    <t>font = input()
+used = []
+for k,v in design.items():
+    if font in v:
+        used.append(k)
+print(used)</t>
+  </si>
+  <si>
+    <t>def best_agencies(names, count):
     names = names.split(', ')
     count = list(map(int, count.split(', ')))
     agency = []
     for idx in range(len(names)):
         if count[idx] &gt;= 500:
             agency.append(names[idx])
-    return sorted(agency)
-print(best_agencies(names, count))</t>
-  </si>
-  <si>
-    <t>discount, money = map(float, input().split(';'))
-money = int(money)</t>
-  </si>
-  <si>
-    <t>discount, money = map(float, input().split(';'))
-money = int(money)
-#ваш код ниже
-print(f'Реализация проекта будет стоить {money} тыс. руб. без скидки. Со скидкой стоимость составит {money- (money * discount)} тыс. руб.')</t>
+    return sorted(agency)</t>
   </si>
   <si>
     <t>import os.path as osp
 cd = osp.dirname(__file__)
-slov = eval(open(osp.join(cd, 'input.txt'), encoding='utf-8').read())
-def work(slov):
+data = eval(open(osp.join(cd, 'input.txt'), encoding='utf-8').read())</t>
+  </si>
+  <si>
+    <t>def success(data):
+    wins = 0
+    money = 0
+    for k, v in data.items():
+        if v[1] == 'победа':
+            wins += 1
+        money += v[0]
+    if len(data) == wins:
+        return True
+    return money</t>
+  </si>
+  <si>
+    <t>def work(slov):
     counter = 0
     money_done = 0
     money_not_done = 0
@@ -610,29 +522,34 @@
     if counter != 0:
         return [money_done, False]
     else:
-        return [money_not_done, True]
-print (work(slov))</t>
-  </si>
-  <si>
-    <t>import os.path as osp
-cd = osp.dirname(__file__)
-data = eval(open(osp.join(cd, 'input.txt'), encoding='utf-8').read())
-def success(data):
-    wins = 0
-    money = 0
-    for k, v in data.items():
-        if v[1] == 'победа':
-            wins += 1
-        money += v[0]
-    if len(data) == wins:
-        return True
-    return money
-print(success(data))</t>
-  </si>
-  <si>
-    <t>import os.path as osp
-cd = osp.dirname(__file__)
-slov = eval(open(osp.join(cd, 'input.txt'), encoding='utf-8').read())</t>
+        return [money_not_done, True]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studios = {
+    'Rutemple Studio': {'Сканди-парк': ['мастер-спальня', 'столовая', 'гостинная', 'прихожая'], 
+                        'Британика': ['прихожая', 'санузел', 'столовая', 'гостинная']},
+    'VDT': {'Гринфилд': ['гостинная', 'гардеробная', 'кабинет', 'столовая'], 
+            'Британика': ["прихожая", 'гостинная', 'столовая'], 
+            'Театральный квартал': ["прихожая", "гостевой санузел", 'столовая', 'гостинная']},
+    'Greenvillage': {'Британика': ["столовая", "гостинная"], 
+                     'Риверсайд': ["гостинная", "столовая", "санузел"]},
+    'T+T architects': {'Гринфилд': ["гостинная", "прихожая", "столовая", 'кабинет'], 
+                       'Монтевиль':["гостинная", 'столовая']}
+}
+</t>
+  </si>
+  <si>
+    <t>studios = {
+    'Rutemple Studio': {'Сканди-парк': ['мастер-спальня', 'столовая', 'гостинная', 'прихожая'], 
+                        'Британика': ['прихожая', 'санузел', 'столовая', 'гостинная']},
+    'VDT': {'Гринфилд': ['гостинная', 'гардеробная', 'кабинет', 'столовая'], 
+            'Британика': ["прихожая", 'гостинная', 'столовая'], 
+            'Театральный квартал': ["прихожая", "гостевой санузел", 'столовая', 'гостинная']},
+    'Greenvillage': {'Британика': ["столовая", "гостинная"], 
+                     'Риверсайд': ["гостинная", "столовая", "санузел"]},
+    'T+T architects': {'Гринфилд': ["гостинная", "прихожая", "столовая", 'кабинет'], 
+                       'Монтевиль':["гостинная", 'столовая']}
+}</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1034,13 +951,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,11 +971,9 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1073,9 +988,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1088,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1102,14 +1015,12 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1119,14 +1030,12 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1136,13 +1045,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,14 +1059,12 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1170,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1187,13 +1091,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1201,13 +1105,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,19 +1119,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,13 +1142,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1255,14 +1156,12 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1272,13 +1171,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1286,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,13 +1202,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,14 +1216,12 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1337,13 +1231,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,16 +1248,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,13 +1265,13 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1385,13 +1279,13 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,22 +1293,25 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>